--- a/Code/Results/Cases/Case_7_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025065554660582</v>
+        <v>1.022585737982786</v>
       </c>
       <c r="D2">
-        <v>1.041134482288479</v>
+        <v>1.04010112959749</v>
       </c>
       <c r="E2">
-        <v>1.036974178524804</v>
+        <v>1.035248507461928</v>
       </c>
       <c r="F2">
-        <v>1.045996001963136</v>
+        <v>1.044474300165878</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051808244731707</v>
+        <v>1.052672139470353</v>
       </c>
       <c r="J2">
-        <v>1.046521560329712</v>
+        <v>1.044111278370336</v>
       </c>
       <c r="K2">
-        <v>1.05204901766706</v>
+        <v>1.051028692340004</v>
       </c>
       <c r="L2">
-        <v>1.047941359899845</v>
+        <v>1.046237681225098</v>
       </c>
       <c r="M2">
-        <v>1.056849679062701</v>
+        <v>1.055346950565569</v>
       </c>
       <c r="N2">
-        <v>1.048007740983081</v>
+        <v>1.045594036146859</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03137300530761</v>
+        <v>1.026641496778406</v>
       </c>
       <c r="D3">
-        <v>1.046051565443619</v>
+        <v>1.043205651186299</v>
       </c>
       <c r="E3">
-        <v>1.042310259711058</v>
+        <v>1.03859195524032</v>
       </c>
       <c r="F3">
-        <v>1.051575131055189</v>
+        <v>1.048076049849536</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053631616578691</v>
+        <v>1.053838163346964</v>
       </c>
       <c r="J3">
-        <v>1.05104347272701</v>
+        <v>1.046431326731336</v>
       </c>
       <c r="K3">
-        <v>1.056127258165038</v>
+        <v>1.053314015092091</v>
       </c>
       <c r="L3">
-        <v>1.052428948313211</v>
+        <v>1.0487537548348</v>
       </c>
       <c r="M3">
-        <v>1.061588035092044</v>
+        <v>1.058128634647493</v>
       </c>
       <c r="N3">
-        <v>1.052536075014654</v>
+        <v>1.047917379242645</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035352573641983</v>
+        <v>1.029218482732796</v>
       </c>
       <c r="D4">
-        <v>1.049156206711103</v>
+        <v>1.045181199296014</v>
       </c>
       <c r="E4">
-        <v>1.045682614685091</v>
+        <v>1.040721863075364</v>
       </c>
       <c r="F4">
-        <v>1.05510104637935</v>
+        <v>1.050370249220941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054770935883514</v>
+        <v>1.054571084323074</v>
       </c>
       <c r="J4">
-        <v>1.053893239016301</v>
+        <v>1.047903198414454</v>
       </c>
       <c r="K4">
-        <v>1.05869546185851</v>
+        <v>1.054763272974595</v>
       </c>
       <c r="L4">
-        <v>1.055259265148419</v>
+        <v>1.050352450342507</v>
       </c>
       <c r="M4">
-        <v>1.064577000735946</v>
+        <v>1.059896505911429</v>
       </c>
       <c r="N4">
-        <v>1.055389888298948</v>
+        <v>1.04939134115238</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03700236050417</v>
+        <v>1.030290863650768</v>
       </c>
       <c r="D5">
-        <v>1.05044375171303</v>
+        <v>1.046003971164888</v>
       </c>
       <c r="E5">
-        <v>1.047081961468035</v>
+        <v>1.041609487350156</v>
       </c>
       <c r="F5">
-        <v>1.056564102457009</v>
+        <v>1.051326282352377</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055240542285297</v>
+        <v>1.05487414042434</v>
       </c>
       <c r="J5">
-        <v>1.055073818169191</v>
+        <v>1.048515128745743</v>
       </c>
       <c r="K5">
-        <v>1.059758911100847</v>
+        <v>1.055365655323241</v>
       </c>
       <c r="L5">
-        <v>1.056432304958972</v>
+        <v>1.051017699611436</v>
       </c>
       <c r="M5">
-        <v>1.065815908124265</v>
+        <v>1.060632250812065</v>
       </c>
       <c r="N5">
-        <v>1.056572144009649</v>
+        <v>1.050004140494929</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037278036888379</v>
+        <v>1.030470287043171</v>
       </c>
       <c r="D6">
-        <v>1.05065892362312</v>
+        <v>1.046141670032145</v>
       </c>
       <c r="E6">
-        <v>1.047315863656993</v>
+        <v>1.041758073345206</v>
       </c>
       <c r="F6">
-        <v>1.056808653141122</v>
+        <v>1.051486316464889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055318851604631</v>
+        <v>1.054924730786705</v>
       </c>
       <c r="J6">
-        <v>1.055271040394266</v>
+        <v>1.048617478354414</v>
       </c>
       <c r="K6">
-        <v>1.059936537041817</v>
+        <v>1.055466399183272</v>
       </c>
       <c r="L6">
-        <v>1.056628298007684</v>
+        <v>1.051129002017577</v>
       </c>
       <c r="M6">
-        <v>1.066022913083934</v>
+        <v>1.060755353572159</v>
       </c>
       <c r="N6">
-        <v>1.056769646312906</v>
+        <v>1.050106635451782</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035374707974783</v>
+        <v>1.029232854639554</v>
       </c>
       <c r="D7">
-        <v>1.049173479270903</v>
+        <v>1.045192223374861</v>
       </c>
       <c r="E7">
-        <v>1.045701383983853</v>
+        <v>1.040733753851544</v>
       </c>
       <c r="F7">
-        <v>1.055120670243551</v>
+        <v>1.050383056641324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054777247147917</v>
+        <v>1.054575153539825</v>
       </c>
       <c r="J7">
-        <v>1.053909081590758</v>
+        <v>1.047911401714249</v>
       </c>
       <c r="K7">
-        <v>1.058709734574658</v>
+        <v>1.054771348863976</v>
       </c>
       <c r="L7">
-        <v>1.055275004507961</v>
+        <v>1.050361366075481</v>
       </c>
       <c r="M7">
-        <v>1.064593623429047</v>
+        <v>1.059906366045482</v>
       </c>
       <c r="N7">
-        <v>1.055405753371678</v>
+        <v>1.049399556101802</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027218972236201</v>
+        <v>1.023966425374507</v>
       </c>
       <c r="D8">
-        <v>1.042812682328394</v>
+        <v>1.041157344379203</v>
       </c>
       <c r="E8">
-        <v>1.03879473003745</v>
+        <v>1.036385529149675</v>
       </c>
       <c r="F8">
-        <v>1.047899485448603</v>
+        <v>1.045699219406977</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052433063493902</v>
+        <v>1.053070732116498</v>
       </c>
       <c r="J8">
-        <v>1.048066030619547</v>
+        <v>1.044901540384863</v>
       </c>
       <c r="K8">
-        <v>1.053442351508388</v>
+        <v>1.051807244374291</v>
       </c>
       <c r="L8">
-        <v>1.049473643833104</v>
+        <v>1.047094198449269</v>
       </c>
       <c r="M8">
-        <v>1.058467482526825</v>
+        <v>1.056293800923072</v>
       </c>
       <c r="N8">
-        <v>1.049554404597881</v>
+        <v>1.046385420424091</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01201242858305</v>
+        <v>1.014306866674025</v>
       </c>
       <c r="D9">
-        <v>1.030975345259677</v>
+        <v>1.033782109476655</v>
       </c>
       <c r="E9">
-        <v>1.0259660097246</v>
+        <v>1.028455475652944</v>
       </c>
       <c r="F9">
-        <v>1.034486170861391</v>
+        <v>1.037154921039809</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047975484508861</v>
+        <v>1.050249745123781</v>
       </c>
       <c r="J9">
-        <v>1.037148013378473</v>
+        <v>1.039364334708353</v>
       </c>
       <c r="K9">
-        <v>1.043585092781686</v>
+        <v>1.046349881586779</v>
       </c>
       <c r="L9">
-        <v>1.038651399679008</v>
+        <v>1.041103156632696</v>
       </c>
       <c r="M9">
-        <v>1.047043459106739</v>
+        <v>1.049672634313195</v>
       </c>
       <c r="N9">
-        <v>1.03862088252001</v>
+        <v>1.040840351280394</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001227923151566</v>
+        <v>1.007587436541585</v>
       </c>
       <c r="D10">
-        <v>1.022601748074557</v>
+        <v>1.028671756226916</v>
       </c>
       <c r="E10">
-        <v>1.016906389256708</v>
+        <v>1.022972262831847</v>
       </c>
       <c r="F10">
-        <v>1.025013431649931</v>
+        <v>1.031245308912811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044758822287108</v>
+        <v>1.04824775560521</v>
       </c>
       <c r="J10">
-        <v>1.029392907137998</v>
+        <v>1.035503219621067</v>
       </c>
       <c r="K10">
-        <v>1.036574569757574</v>
+        <v>1.042541936405985</v>
       </c>
       <c r="L10">
-        <v>1.030976958616789</v>
+        <v>1.036938774177175</v>
       </c>
       <c r="M10">
-        <v>1.038945284853112</v>
+        <v>1.045072441206428</v>
       </c>
       <c r="N10">
-        <v>1.030854763139151</v>
+        <v>1.036973752966808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9963831194152319</v>
+        <v>1.004605625416254</v>
       </c>
       <c r="D11">
-        <v>1.01884663688699</v>
+        <v>1.026409405432135</v>
       </c>
       <c r="E11">
-        <v>1.012846938102051</v>
+        <v>1.020547471230568</v>
       </c>
       <c r="F11">
-        <v>1.020768797867859</v>
+        <v>1.028631507082045</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043301522881378</v>
+        <v>1.047350415245164</v>
       </c>
       <c r="J11">
-        <v>1.025907142805216</v>
+        <v>1.033788052268149</v>
       </c>
       <c r="K11">
-        <v>1.03342167526653</v>
+        <v>1.04084989196383</v>
       </c>
       <c r="L11">
-        <v>1.027530579655402</v>
+        <v>1.035092023751193</v>
       </c>
       <c r="M11">
-        <v>1.035309393016948</v>
+        <v>1.0430329466741</v>
       </c>
       <c r="N11">
-        <v>1.027364048621193</v>
+        <v>1.035256149879517</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9945551827493543</v>
+        <v>1.003486658084063</v>
       </c>
       <c r="D12">
-        <v>1.017430976801332</v>
+        <v>1.025561298581151</v>
       </c>
       <c r="E12">
-        <v>1.011317010433344</v>
+        <v>1.019638852445846</v>
       </c>
       <c r="F12">
-        <v>1.019169067344165</v>
+        <v>1.027651990832794</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042749926676325</v>
+        <v>1.047012373234206</v>
       </c>
       <c r="J12">
-        <v>1.024591778061567</v>
+        <v>1.03314418580586</v>
       </c>
       <c r="K12">
-        <v>1.032231676587717</v>
+        <v>1.040214639842902</v>
       </c>
       <c r="L12">
-        <v>1.026230559350396</v>
+        <v>1.034399232975712</v>
       </c>
       <c r="M12">
-        <v>1.03393800784133</v>
+        <v>1.042267928521544</v>
       </c>
       <c r="N12">
-        <v>1.026046815908734</v>
+        <v>1.034611369052999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9949486002281323</v>
+        <v>1.003727204733307</v>
       </c>
       <c r="D13">
-        <v>1.017735608329291</v>
+        <v>1.025743577402218</v>
       </c>
       <c r="E13">
-        <v>1.011646210243145</v>
+        <v>1.019834119588565</v>
       </c>
       <c r="F13">
-        <v>1.019513287383864</v>
+        <v>1.027862497528579</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042868721983324</v>
+        <v>1.047085100980034</v>
       </c>
       <c r="J13">
-        <v>1.024874884404741</v>
+        <v>1.033282608607694</v>
       </c>
       <c r="K13">
-        <v>1.032487810882121</v>
+        <v>1.040351213511216</v>
       </c>
       <c r="L13">
-        <v>1.026510341120085</v>
+        <v>1.034548152543185</v>
       </c>
       <c r="M13">
-        <v>1.034233142684406</v>
+        <v>1.042432370236238</v>
       </c>
       <c r="N13">
-        <v>1.026330324295388</v>
+        <v>1.034749988431089</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9962326128420596</v>
+        <v>1.004513366783259</v>
       </c>
       <c r="D14">
-        <v>1.01873005192632</v>
+        <v>1.026339461097829</v>
       </c>
       <c r="E14">
-        <v>1.012720933463186</v>
+        <v>1.020472528666373</v>
       </c>
       <c r="F14">
-        <v>1.020637044503544</v>
+        <v>1.028550718398592</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043256141403761</v>
+        <v>1.047322569989174</v>
       </c>
       <c r="J14">
-        <v>1.025798843132523</v>
+        <v>1.033734969958263</v>
       </c>
       <c r="K14">
-        <v>1.033323702299796</v>
+        <v>1.040797521135653</v>
       </c>
       <c r="L14">
-        <v>1.027423533492858</v>
+        <v>1.03503489838183</v>
       </c>
       <c r="M14">
-        <v>1.035196468024667</v>
+        <v>1.042969864056799</v>
       </c>
       <c r="N14">
-        <v>1.027255595150543</v>
+        <v>1.035202992186661</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9970199119739883</v>
+        <v>1.004996221360619</v>
       </c>
       <c r="D15">
-        <v>1.019339954432899</v>
+        <v>1.026705565141082</v>
       </c>
       <c r="E15">
-        <v>1.013380132909826</v>
+        <v>1.020864810135064</v>
       </c>
       <c r="F15">
-        <v>1.02132631823326</v>
+        <v>1.028973598015872</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043493460586227</v>
+        <v>1.047468251013547</v>
       </c>
       <c r="J15">
-        <v>1.026365350948262</v>
+        <v>1.034012778217517</v>
       </c>
       <c r="K15">
-        <v>1.033836182120335</v>
+        <v>1.041071603193339</v>
       </c>
       <c r="L15">
-        <v>1.027983503986808</v>
+        <v>1.035333885373331</v>
       </c>
       <c r="M15">
-        <v>1.035787196334063</v>
+        <v>1.043300033747764</v>
       </c>
       <c r="N15">
-        <v>1.027822907472359</v>
+        <v>1.035481194965509</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001545597596933</v>
+        <v>1.007783762317084</v>
       </c>
       <c r="D16">
-        <v>1.022848120414943</v>
+        <v>1.028820829869845</v>
       </c>
       <c r="E16">
-        <v>1.017172795533564</v>
+        <v>1.023132094136847</v>
       </c>
       <c r="F16">
-        <v>1.025291989233127</v>
+        <v>1.031417589211179</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044854129963762</v>
+        <v>1.048306654418891</v>
       </c>
       <c r="J16">
-        <v>1.029621437644509</v>
+        <v>1.035616114699691</v>
       </c>
       <c r="K16">
-        <v>1.03678124177571</v>
+        <v>1.042653299874303</v>
       </c>
       <c r="L16">
-        <v>1.031202972901881</v>
+        <v>1.037060395661971</v>
       </c>
       <c r="M16">
-        <v>1.039183743966011</v>
+        <v>1.045206767161415</v>
       </c>
       <c r="N16">
-        <v>1.031083618185193</v>
+        <v>1.037086808369393</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004336185736607</v>
+        <v>1.009512601288926</v>
       </c>
       <c r="D17">
-        <v>1.025013126592841</v>
+        <v>1.030134192672177</v>
       </c>
       <c r="E17">
-        <v>1.019514222091776</v>
+        <v>1.024540532014606</v>
       </c>
       <c r="F17">
-        <v>1.027740204611089</v>
+        <v>1.032935676324048</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045689974352139</v>
+        <v>1.048824301149203</v>
       </c>
       <c r="J17">
-        <v>1.031628744541001</v>
+        <v>1.036610069278578</v>
       </c>
       <c r="K17">
-        <v>1.038596352443017</v>
+        <v>1.043633714289859</v>
       </c>
       <c r="L17">
-        <v>1.033188534090968</v>
+        <v>1.038131536713134</v>
       </c>
       <c r="M17">
-        <v>1.041278722707445</v>
+        <v>1.046389858203245</v>
       </c>
       <c r="N17">
-        <v>1.033093775687719</v>
+        <v>1.038082174477791</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005947149680428</v>
+        <v>1.010514070150037</v>
       </c>
       <c r="D18">
-        <v>1.026263566727998</v>
+        <v>1.030895498691874</v>
       </c>
       <c r="E18">
-        <v>1.020866871397946</v>
+        <v>1.025357199971957</v>
       </c>
       <c r="F18">
-        <v>1.029154539397388</v>
+        <v>1.033815880889063</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046171332417456</v>
+        <v>1.049123307008409</v>
       </c>
       <c r="J18">
-        <v>1.03278734841974</v>
+        <v>1.03718566974798</v>
       </c>
       <c r="K18">
-        <v>1.039643849722578</v>
+        <v>1.044201425915734</v>
       </c>
       <c r="L18">
-        <v>1.034334880757288</v>
+        <v>1.038752133639427</v>
       </c>
       <c r="M18">
-        <v>1.042488313323743</v>
+        <v>1.047075366251368</v>
       </c>
       <c r="N18">
-        <v>1.034254024916861</v>
+        <v>1.038658592365881</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006493666788079</v>
+        <v>1.010854384795921</v>
       </c>
       <c r="D19">
-        <v>1.02668787697717</v>
+        <v>1.031154287254188</v>
       </c>
       <c r="E19">
-        <v>1.021325918297447</v>
+        <v>1.025634850372386</v>
       </c>
       <c r="F19">
-        <v>1.029634519288562</v>
+        <v>1.034115125377556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04633443296686</v>
+        <v>1.049224768009456</v>
       </c>
       <c r="J19">
-        <v>1.033180369302779</v>
+        <v>1.037381237715054</v>
       </c>
       <c r="K19">
-        <v>1.039999151086409</v>
+        <v>1.044394305196292</v>
       </c>
       <c r="L19">
-        <v>1.034723793326973</v>
+        <v>1.038963040230127</v>
       </c>
       <c r="M19">
-        <v>1.042898694369002</v>
+        <v>1.047308340952391</v>
       </c>
       <c r="N19">
-        <v>1.034647603934634</v>
+        <v>1.038854438061901</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004038527656464</v>
+        <v>1.009327834172242</v>
       </c>
       <c r="D20">
-        <v>1.024782131362296</v>
+        <v>1.029993775543295</v>
       </c>
       <c r="E20">
-        <v>1.019264371270301</v>
+        <v>1.024389924105612</v>
       </c>
       <c r="F20">
-        <v>1.027478959186213</v>
+        <v>1.032773347759222</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045600939137753</v>
+        <v>1.048769066560942</v>
       </c>
       <c r="J20">
-        <v>1.031414653615035</v>
+        <v>1.036503859212156</v>
       </c>
       <c r="K20">
-        <v>1.038402778057754</v>
+        <v>1.043528955960693</v>
       </c>
       <c r="L20">
-        <v>1.032976731827554</v>
+        <v>1.038017047926083</v>
       </c>
       <c r="M20">
-        <v>1.041055241154271</v>
+        <v>1.046263398506917</v>
       </c>
       <c r="N20">
-        <v>1.032879380728084</v>
+        <v>1.037975813580892</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9958553036705731</v>
+        <v>1.00428218052746</v>
       </c>
       <c r="D21">
-        <v>1.018437800609567</v>
+        <v>1.026164205385267</v>
       </c>
       <c r="E21">
-        <v>1.012405076626196</v>
+        <v>1.0202847553085</v>
       </c>
       <c r="F21">
-        <v>1.020306777109795</v>
+        <v>1.028348296050362</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043142345272162</v>
+        <v>1.047252773123382</v>
       </c>
       <c r="J21">
-        <v>1.025527340871825</v>
+        <v>1.033601950179495</v>
       </c>
       <c r="K21">
-        <v>1.03307808479236</v>
+        <v>1.040666283237864</v>
       </c>
       <c r="L21">
-        <v>1.027155181528332</v>
+        <v>1.034891754636867</v>
       </c>
       <c r="M21">
-        <v>1.034913380517392</v>
+        <v>1.042811794014941</v>
       </c>
       <c r="N21">
-        <v>1.026983707325493</v>
+        <v>1.03506978350455</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9905449149724698</v>
+        <v>1.001043590644382</v>
       </c>
       <c r="D22">
-        <v>1.014327456299867</v>
+        <v>1.023711277686509</v>
       </c>
       <c r="E22">
-        <v>1.00796380974365</v>
+        <v>1.017657526362357</v>
       </c>
       <c r="F22">
-        <v>1.015662856187642</v>
+        <v>1.025515930325582</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041536647153925</v>
+        <v>1.046271971557408</v>
       </c>
       <c r="J22">
-        <v>1.021705784724338</v>
+        <v>1.031738047562913</v>
       </c>
       <c r="K22">
-        <v>1.029620328297232</v>
+        <v>1.038827203090928</v>
       </c>
       <c r="L22">
-        <v>1.02337913581925</v>
+        <v>1.032887116443159</v>
       </c>
       <c r="M22">
-        <v>1.030930286162107</v>
+        <v>1.040598310333422</v>
       </c>
       <c r="N22">
-        <v>1.023156724129938</v>
+        <v>1.033203233932461</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9933764647814376</v>
+        <v>1.002766889259749</v>
       </c>
       <c r="D23">
-        <v>1.016518448709397</v>
+        <v>1.025016012525646</v>
       </c>
       <c r="E23">
-        <v>1.010330953807604</v>
+        <v>1.019054767284251</v>
       </c>
       <c r="F23">
-        <v>1.018138018761652</v>
+        <v>1.027022310151501</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042393752848808</v>
+        <v>1.046794568119171</v>
       </c>
       <c r="J23">
-        <v>1.02374354262055</v>
+        <v>1.032729964213303</v>
       </c>
       <c r="K23">
-        <v>1.031464220622361</v>
+        <v>1.03980594268942</v>
       </c>
       <c r="L23">
-        <v>1.025392356603444</v>
+        <v>1.033953669614546</v>
       </c>
       <c r="M23">
-        <v>1.033053826907463</v>
+        <v>1.041775934877807</v>
       </c>
       <c r="N23">
-        <v>1.025197375876097</v>
+        <v>1.034196559218269</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004173078105913</v>
+        <v>1.009411343867622</v>
       </c>
       <c r="D24">
-        <v>1.024886546290179</v>
+        <v>1.03005723867476</v>
       </c>
       <c r="E24">
-        <v>1.019377308362901</v>
+        <v>1.024457992299844</v>
       </c>
       <c r="F24">
-        <v>1.027597046866657</v>
+        <v>1.032846713308659</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045641189358966</v>
+        <v>1.048794033733459</v>
       </c>
       <c r="J24">
-        <v>1.031511429761941</v>
+        <v>1.036551863794328</v>
       </c>
       <c r="K24">
-        <v>1.038490280589515</v>
+        <v>1.043576304538547</v>
       </c>
       <c r="L24">
-        <v>1.033072472511172</v>
+        <v>1.038068793382799</v>
       </c>
       <c r="M24">
-        <v>1.041156260985941</v>
+        <v>1.046320554297535</v>
       </c>
       <c r="N24">
-        <v>1.032976294308218</v>
+        <v>1.038023886335077</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01605095635358</v>
+        <v>1.016851508884325</v>
       </c>
       <c r="D25">
-        <v>1.034115877732059</v>
+        <v>1.035721733237702</v>
       </c>
       <c r="E25">
-        <v>1.029366847800149</v>
+        <v>1.030538967759698</v>
       </c>
       <c r="F25">
-        <v>1.038042028376547</v>
+        <v>1.039400071654791</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049169063100559</v>
+        <v>1.050999884015481</v>
       </c>
       <c r="J25">
-        <v>1.040049958383342</v>
+        <v>1.040824763382035</v>
       </c>
       <c r="K25">
-        <v>1.046206705646701</v>
+        <v>1.0477897156239</v>
       </c>
       <c r="L25">
-        <v>1.04152576566847</v>
+        <v>1.04268100630036</v>
       </c>
       <c r="M25">
-        <v>1.050077159139712</v>
+        <v>1.051416060694831</v>
       </c>
       <c r="N25">
-        <v>1.041526948619644</v>
+        <v>1.042302853930306</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022585737982786</v>
+        <v>1.014123323037735</v>
       </c>
       <c r="D2">
-        <v>1.04010112959749</v>
+        <v>1.031936876862381</v>
       </c>
       <c r="E2">
-        <v>1.035248507461928</v>
+        <v>1.028167667673613</v>
       </c>
       <c r="F2">
-        <v>1.044474300165878</v>
+        <v>1.037859320001385</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052672139470353</v>
+        <v>1.048312236878088</v>
       </c>
       <c r="J2">
-        <v>1.044111278370336</v>
+        <v>1.035889660416144</v>
       </c>
       <c r="K2">
-        <v>1.051028692340004</v>
+        <v>1.042968512507125</v>
       </c>
       <c r="L2">
-        <v>1.046237681225098</v>
+        <v>1.039248048928896</v>
       </c>
       <c r="M2">
-        <v>1.055346950565569</v>
+        <v>1.048815256342161</v>
       </c>
       <c r="N2">
-        <v>1.045594036146859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015807499224069</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047206360802898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026641496778406</v>
+        <v>1.01739975848535</v>
       </c>
       <c r="D3">
-        <v>1.043205651186299</v>
+        <v>1.034218786307993</v>
       </c>
       <c r="E3">
-        <v>1.03859195524032</v>
+        <v>1.030688622329812</v>
       </c>
       <c r="F3">
-        <v>1.048076049849536</v>
+        <v>1.04032288798333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053838163346964</v>
+        <v>1.049032783994088</v>
       </c>
       <c r="J3">
-        <v>1.046431326731336</v>
+        <v>1.037427071073004</v>
       </c>
       <c r="K3">
-        <v>1.053314015092091</v>
+        <v>1.044431780573909</v>
       </c>
       <c r="L3">
-        <v>1.0487537548348</v>
+        <v>1.040943335208826</v>
       </c>
       <c r="M3">
-        <v>1.058128634647493</v>
+        <v>1.050464571308245</v>
       </c>
       <c r="N3">
-        <v>1.047917379242645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016326126436027</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048511669865604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029218482732796</v>
+        <v>1.019486163174137</v>
       </c>
       <c r="D4">
-        <v>1.045181199296014</v>
+        <v>1.03567506694048</v>
       </c>
       <c r="E4">
-        <v>1.040721863075364</v>
+        <v>1.032299594302121</v>
       </c>
       <c r="F4">
-        <v>1.050370249220941</v>
+        <v>1.041897796149032</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054571084323074</v>
+        <v>1.049484024915055</v>
       </c>
       <c r="J4">
-        <v>1.047903198414454</v>
+        <v>1.038404212340887</v>
       </c>
       <c r="K4">
-        <v>1.054763272974595</v>
+        <v>1.045361178294751</v>
       </c>
       <c r="L4">
-        <v>1.050352450342507</v>
+        <v>1.042023214878603</v>
       </c>
       <c r="M4">
-        <v>1.059896505911429</v>
+        <v>1.05151554083238</v>
       </c>
       <c r="N4">
-        <v>1.04939134115238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016655654185234</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049343432200993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030290863650768</v>
+        <v>1.02035542977712</v>
       </c>
       <c r="D5">
-        <v>1.046003971164888</v>
+        <v>1.036282532681635</v>
       </c>
       <c r="E5">
-        <v>1.041609487350156</v>
+        <v>1.032972107661843</v>
       </c>
       <c r="F5">
-        <v>1.051326282352377</v>
+        <v>1.042555397244447</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05487414042434</v>
+        <v>1.049670176895486</v>
       </c>
       <c r="J5">
-        <v>1.048515128745743</v>
+        <v>1.038810851980507</v>
       </c>
       <c r="K5">
-        <v>1.055365655323241</v>
+        <v>1.0457477943354</v>
       </c>
       <c r="L5">
-        <v>1.051017699611436</v>
+        <v>1.042473186188372</v>
       </c>
       <c r="M5">
-        <v>1.060632250812065</v>
+        <v>1.051953553819673</v>
       </c>
       <c r="N5">
-        <v>1.050004140494929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016792762657253</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049690085846313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030470287043171</v>
+        <v>1.020500928423498</v>
       </c>
       <c r="D6">
-        <v>1.046141670032145</v>
+        <v>1.036384252812811</v>
       </c>
       <c r="E6">
-        <v>1.041758073345206</v>
+        <v>1.033084750826569</v>
       </c>
       <c r="F6">
-        <v>1.051486316464889</v>
+        <v>1.042665550974818</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054924730786705</v>
+        <v>1.049701225656643</v>
       </c>
       <c r="J6">
-        <v>1.048617478354414</v>
+        <v>1.038878887415027</v>
       </c>
       <c r="K6">
-        <v>1.055466399183272</v>
+        <v>1.045812470303925</v>
       </c>
       <c r="L6">
-        <v>1.051129002017577</v>
+        <v>1.042548505468298</v>
       </c>
       <c r="M6">
-        <v>1.060755353572159</v>
+        <v>1.052026876575234</v>
       </c>
       <c r="N6">
-        <v>1.050106635451782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016815700934756</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049748115161273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029232854639554</v>
+        <v>1.019497808969406</v>
       </c>
       <c r="D7">
-        <v>1.045192223374861</v>
+        <v>1.035683202482163</v>
       </c>
       <c r="E7">
-        <v>1.040733753851544</v>
+        <v>1.03230859893686</v>
       </c>
       <c r="F7">
-        <v>1.050383056641324</v>
+        <v>1.041906600556217</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054575153539825</v>
+        <v>1.049486526180227</v>
       </c>
       <c r="J7">
-        <v>1.047911401714249</v>
+        <v>1.03840966208537</v>
       </c>
       <c r="K7">
-        <v>1.054771348863976</v>
+        <v>1.045366360305081</v>
       </c>
       <c r="L7">
-        <v>1.050361366075481</v>
+        <v>1.042029243069674</v>
       </c>
       <c r="M7">
-        <v>1.059906366045482</v>
+        <v>1.051521408473701</v>
       </c>
       <c r="N7">
-        <v>1.049399556101802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016657491801242</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049348075989601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023966425374507</v>
+        <v>1.015237705025424</v>
       </c>
       <c r="D8">
-        <v>1.041157344379203</v>
+        <v>1.032712315005153</v>
       </c>
       <c r="E8">
-        <v>1.036385529149675</v>
+        <v>1.029023897021569</v>
       </c>
       <c r="F8">
-        <v>1.045699219406977</v>
+        <v>1.038695929556679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053070732116498</v>
+        <v>1.048558880835758</v>
       </c>
       <c r="J8">
-        <v>1.044901540384863</v>
+        <v>1.036412941779006</v>
       </c>
       <c r="K8">
-        <v>1.051807244374291</v>
+        <v>1.043466684356779</v>
       </c>
       <c r="L8">
-        <v>1.047094198449269</v>
+        <v>1.039824565128673</v>
       </c>
       <c r="M8">
-        <v>1.056293800923072</v>
+        <v>1.049376060237432</v>
       </c>
       <c r="N8">
-        <v>1.046385420424091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015984041855742</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047650195272321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014306866674025</v>
+        <v>1.007463561582373</v>
       </c>
       <c r="D9">
-        <v>1.033782109476655</v>
+        <v>1.027317477667471</v>
       </c>
       <c r="E9">
-        <v>1.028455475652944</v>
+        <v>1.0230756147484</v>
       </c>
       <c r="F9">
-        <v>1.037154921039809</v>
+        <v>1.032886617068664</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050249745123781</v>
+        <v>1.046807408892109</v>
       </c>
       <c r="J9">
-        <v>1.039364334708353</v>
+        <v>1.032755487452858</v>
       </c>
       <c r="K9">
-        <v>1.046349881586779</v>
+        <v>1.039982367483629</v>
       </c>
       <c r="L9">
-        <v>1.041103156632696</v>
+        <v>1.035805080386024</v>
       </c>
       <c r="M9">
-        <v>1.049672634313195</v>
+        <v>1.0454677498252</v>
       </c>
       <c r="N9">
-        <v>1.040840351280394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01474974423856</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044557053422929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007587436541585</v>
+        <v>1.002135097460143</v>
       </c>
       <c r="D10">
-        <v>1.028671756226916</v>
+        <v>1.023658612883053</v>
       </c>
       <c r="E10">
-        <v>1.022972262831847</v>
+        <v>1.019053992811927</v>
       </c>
       <c r="F10">
-        <v>1.031245308912811</v>
+        <v>1.028995584664818</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04824775560521</v>
+        <v>1.045586622208459</v>
       </c>
       <c r="J10">
-        <v>1.035503219621067</v>
+        <v>1.030264259605367</v>
       </c>
       <c r="K10">
-        <v>1.042541936405985</v>
+        <v>1.037613450395214</v>
       </c>
       <c r="L10">
-        <v>1.036938774177175</v>
+        <v>1.033087537626768</v>
       </c>
       <c r="M10">
-        <v>1.045072441206428</v>
+        <v>1.042860332890814</v>
       </c>
       <c r="N10">
-        <v>1.036973752966808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013911593786085</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042544652179946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004605625416254</v>
+        <v>1.000166807838063</v>
       </c>
       <c r="D11">
-        <v>1.026409405432135</v>
+        <v>1.022464146606426</v>
       </c>
       <c r="E11">
-        <v>1.020547471230568</v>
+        <v>1.01775965537373</v>
       </c>
       <c r="F11">
-        <v>1.028631507082045</v>
+        <v>1.028009427754436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047350415245164</v>
+        <v>1.045267498390844</v>
       </c>
       <c r="J11">
-        <v>1.033788052268149</v>
+        <v>1.029532649055307</v>
       </c>
       <c r="K11">
-        <v>1.04084989196383</v>
+        <v>1.036974502281632</v>
       </c>
       <c r="L11">
-        <v>1.035092023751193</v>
+        <v>1.032354246239717</v>
       </c>
       <c r="M11">
-        <v>1.0430329466741</v>
+        <v>1.042421776524687</v>
       </c>
       <c r="N11">
-        <v>1.035256149879517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013691254258974</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042631713014703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003486658084063</v>
+        <v>0.9995802539480595</v>
       </c>
       <c r="D12">
-        <v>1.025561298581151</v>
+        <v>1.022178901770346</v>
       </c>
       <c r="E12">
-        <v>1.019638852445846</v>
+        <v>1.017457636211375</v>
       </c>
       <c r="F12">
-        <v>1.027651990832794</v>
+        <v>1.027913118089612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047012373234206</v>
+        <v>1.045235971225561</v>
       </c>
       <c r="J12">
-        <v>1.03314418580586</v>
+        <v>1.029402388810404</v>
       </c>
       <c r="K12">
-        <v>1.040214639842902</v>
+        <v>1.036893177206206</v>
       </c>
       <c r="L12">
-        <v>1.034399232975712</v>
+        <v>1.032257847796234</v>
       </c>
       <c r="M12">
-        <v>1.042267928521544</v>
+        <v>1.042524397951943</v>
       </c>
       <c r="N12">
-        <v>1.034611369052999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013669025974218</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043037838802298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003727204733307</v>
+        <v>1.000018522269637</v>
       </c>
       <c r="D13">
-        <v>1.025743577402218</v>
+        <v>1.022575416107869</v>
       </c>
       <c r="E13">
-        <v>1.019834119588565</v>
+        <v>1.017900370268958</v>
       </c>
       <c r="F13">
-        <v>1.027862497528579</v>
+        <v>1.028503822853623</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047085100980034</v>
+        <v>1.045428115825908</v>
       </c>
       <c r="J13">
-        <v>1.033282608607694</v>
+        <v>1.029729480050465</v>
       </c>
       <c r="K13">
-        <v>1.040351213511216</v>
+        <v>1.037239894635195</v>
       </c>
       <c r="L13">
-        <v>1.034548152543185</v>
+        <v>1.032649568574599</v>
       </c>
       <c r="M13">
-        <v>1.042432370236238</v>
+        <v>1.043062305659285</v>
       </c>
       <c r="N13">
-        <v>1.034749988431089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013798809837161</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.043738726297576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004513366783259</v>
+        <v>1.00078911559272</v>
       </c>
       <c r="D14">
-        <v>1.026339461097829</v>
+        <v>1.023161077703553</v>
       </c>
       <c r="E14">
-        <v>1.020472528666373</v>
+        <v>1.018546821119984</v>
       </c>
       <c r="F14">
-        <v>1.028550718398592</v>
+        <v>1.02922785062417</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047322569989174</v>
+        <v>1.045663209930899</v>
       </c>
       <c r="J14">
-        <v>1.033734969958263</v>
+        <v>1.030164710436365</v>
       </c>
       <c r="K14">
-        <v>1.040797521135653</v>
+        <v>1.037675454305593</v>
       </c>
       <c r="L14">
-        <v>1.03503489838183</v>
+        <v>1.033143768905255</v>
       </c>
       <c r="M14">
-        <v>1.042969864056799</v>
+        <v>1.043635123229962</v>
       </c>
       <c r="N14">
-        <v>1.035202992186661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013958166592175</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044364238266728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004996221360619</v>
+        <v>1.001201454913306</v>
       </c>
       <c r="D15">
-        <v>1.026705565141082</v>
+        <v>1.023455561082307</v>
       </c>
       <c r="E15">
-        <v>1.020864810135064</v>
+        <v>1.018870794675844</v>
       </c>
       <c r="F15">
-        <v>1.028973598015872</v>
+        <v>1.029563045683142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047468251013547</v>
+        <v>1.045771131699862</v>
       </c>
       <c r="J15">
-        <v>1.034012778217517</v>
+        <v>1.030373550322166</v>
       </c>
       <c r="K15">
-        <v>1.041071603193339</v>
+        <v>1.037878744494231</v>
       </c>
       <c r="L15">
-        <v>1.035333885373331</v>
+        <v>1.033375397718656</v>
       </c>
       <c r="M15">
-        <v>1.043300033747764</v>
+        <v>1.043879225994767</v>
       </c>
       <c r="N15">
-        <v>1.035481194965509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01403120264338</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044594591444233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007783762317084</v>
+        <v>1.003367081953575</v>
       </c>
       <c r="D16">
-        <v>1.028820829869845</v>
+        <v>1.024926347188799</v>
       </c>
       <c r="E16">
-        <v>1.023132094136847</v>
+        <v>1.020486038173742</v>
       </c>
       <c r="F16">
-        <v>1.031417589211179</v>
+        <v>1.031115117896783</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048306654418891</v>
+        <v>1.04626241641683</v>
       </c>
       <c r="J16">
-        <v>1.035616114699691</v>
+        <v>1.031371383331856</v>
       </c>
       <c r="K16">
-        <v>1.042653299874303</v>
+        <v>1.038824274842945</v>
       </c>
       <c r="L16">
-        <v>1.037060395661971</v>
+        <v>1.034459385026313</v>
       </c>
       <c r="M16">
-        <v>1.045206767161415</v>
+        <v>1.044909324068472</v>
       </c>
       <c r="N16">
-        <v>1.037086808369393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014363092409345</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045370193305612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009512601288926</v>
+        <v>1.004626089048313</v>
       </c>
       <c r="D17">
-        <v>1.030134192672177</v>
+        <v>1.025748466978362</v>
       </c>
       <c r="E17">
-        <v>1.024540532014606</v>
+        <v>1.02138736848213</v>
       </c>
       <c r="F17">
-        <v>1.032935676324048</v>
+        <v>1.031923226610456</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048824301149203</v>
+        <v>1.046513666147178</v>
       </c>
       <c r="J17">
-        <v>1.036610069278578</v>
+        <v>1.031907646934081</v>
       </c>
       <c r="K17">
-        <v>1.043633714289859</v>
+        <v>1.039319607546279</v>
       </c>
       <c r="L17">
-        <v>1.038131536713134</v>
+        <v>1.035030511083816</v>
       </c>
       <c r="M17">
-        <v>1.046389858203245</v>
+        <v>1.045393757699305</v>
       </c>
       <c r="N17">
-        <v>1.038082174477791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014533659988632</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045624526773982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010514070150037</v>
+        <v>1.005218811566388</v>
       </c>
       <c r="D18">
-        <v>1.030895498691874</v>
+        <v>1.026077306420467</v>
       </c>
       <c r="E18">
-        <v>1.025357199971957</v>
+        <v>1.021743162948213</v>
       </c>
       <c r="F18">
-        <v>1.033815880889063</v>
+        <v>1.03213569250829</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049123307008409</v>
+        <v>1.046576569923056</v>
       </c>
       <c r="J18">
-        <v>1.03718566974798</v>
+        <v>1.032086098041451</v>
       </c>
       <c r="K18">
-        <v>1.044201425915734</v>
+        <v>1.039460597447557</v>
       </c>
       <c r="L18">
-        <v>1.038752133639427</v>
+        <v>1.03519684669632</v>
       </c>
       <c r="M18">
-        <v>1.047075366251368</v>
+        <v>1.045421856206645</v>
       </c>
       <c r="N18">
-        <v>1.038658592365881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014577328242977</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045410011271021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010854384795921</v>
+        <v>1.005207083687894</v>
       </c>
       <c r="D19">
-        <v>1.031154287254188</v>
+        <v>1.025958407191615</v>
       </c>
       <c r="E19">
-        <v>1.025634850372386</v>
+        <v>1.021602210186384</v>
       </c>
       <c r="F19">
-        <v>1.034115125377556</v>
+        <v>1.031804988669464</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049224768009456</v>
+        <v>1.046470871830139</v>
       </c>
       <c r="J19">
-        <v>1.037381237715054</v>
+        <v>1.031941320790682</v>
       </c>
       <c r="K19">
-        <v>1.044394305196292</v>
+        <v>1.039281394713724</v>
       </c>
       <c r="L19">
-        <v>1.038963040230127</v>
+        <v>1.034995594297337</v>
       </c>
       <c r="M19">
-        <v>1.047308340952391</v>
+        <v>1.045034691394288</v>
       </c>
       <c r="N19">
-        <v>1.038854438061901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014507896714431</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044779868356497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009327834172242</v>
+        <v>1.00351479153645</v>
       </c>
       <c r="D20">
-        <v>1.029993775543295</v>
+        <v>1.024605294880591</v>
       </c>
       <c r="E20">
-        <v>1.024389924105612</v>
+        <v>1.020093912670685</v>
       </c>
       <c r="F20">
-        <v>1.032773347759222</v>
+        <v>1.030003192319428</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048769066560942</v>
+        <v>1.045906178580921</v>
       </c>
       <c r="J20">
-        <v>1.036503859212156</v>
+        <v>1.030910893001461</v>
       </c>
       <c r="K20">
-        <v>1.043528955960693</v>
+        <v>1.038228861160438</v>
       </c>
       <c r="L20">
-        <v>1.038017047926083</v>
+        <v>1.03379240329311</v>
       </c>
       <c r="M20">
-        <v>1.046263398506917</v>
+        <v>1.043538219315922</v>
       </c>
       <c r="N20">
-        <v>1.037975813580892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014129295028625</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043070627537722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00428218052746</v>
+        <v>0.9994527641979725</v>
       </c>
       <c r="D21">
-        <v>1.026164205385267</v>
+        <v>1.021794710234315</v>
       </c>
       <c r="E21">
-        <v>1.0202847553085</v>
+        <v>1.017004749581467</v>
       </c>
       <c r="F21">
-        <v>1.028348296050362</v>
+        <v>1.026963832675607</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047252773123382</v>
+        <v>1.044936461630636</v>
       </c>
       <c r="J21">
-        <v>1.033601950179495</v>
+        <v>1.02897338294655</v>
       </c>
       <c r="K21">
-        <v>1.040666283237864</v>
+        <v>1.036374614059472</v>
       </c>
       <c r="L21">
-        <v>1.034891754636867</v>
+        <v>1.031670967800349</v>
       </c>
       <c r="M21">
-        <v>1.042811794014941</v>
+        <v>1.041451761175789</v>
       </c>
       <c r="N21">
-        <v>1.03506978350455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013472710606191</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041378678497817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001043590644382</v>
+        <v>0.9968778665925068</v>
       </c>
       <c r="D22">
-        <v>1.023711277686509</v>
+        <v>1.020027438445073</v>
       </c>
       <c r="E22">
-        <v>1.017657526362357</v>
+        <v>1.015065466411016</v>
       </c>
       <c r="F22">
-        <v>1.025515930325582</v>
+        <v>1.025073143371819</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046271971557408</v>
+        <v>1.044322991574965</v>
       </c>
       <c r="J22">
-        <v>1.031738047562913</v>
+        <v>1.027755707414549</v>
       </c>
       <c r="K22">
-        <v>1.038827203090928</v>
+        <v>1.035212321370706</v>
       </c>
       <c r="L22">
-        <v>1.032887116443159</v>
+        <v>1.030344267024195</v>
       </c>
       <c r="M22">
-        <v>1.040598310333422</v>
+        <v>1.040163739767813</v>
       </c>
       <c r="N22">
-        <v>1.033203233932461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013061465207109</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040359296433998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002766889259749</v>
+        <v>0.9982471898697582</v>
       </c>
       <c r="D23">
-        <v>1.025016012525646</v>
+        <v>1.020966787114621</v>
       </c>
       <c r="E23">
-        <v>1.019054767284251</v>
+        <v>1.016096054631321</v>
       </c>
       <c r="F23">
-        <v>1.027022310151501</v>
+        <v>1.026077830577558</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046794568119171</v>
+        <v>1.04464990774393</v>
       </c>
       <c r="J23">
-        <v>1.032729964213303</v>
+        <v>1.028403361432652</v>
       </c>
       <c r="K23">
-        <v>1.03980594268942</v>
+        <v>1.035830556997837</v>
       </c>
       <c r="L23">
-        <v>1.033953669614546</v>
+        <v>1.031049661765483</v>
       </c>
       <c r="M23">
-        <v>1.041775934877807</v>
+        <v>1.040848523360272</v>
       </c>
       <c r="N23">
-        <v>1.034196559218269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013280201792158</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040901256636124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009411343867622</v>
+        <v>1.003544005794268</v>
       </c>
       <c r="D24">
-        <v>1.03005723867476</v>
+        <v>1.024610645477993</v>
       </c>
       <c r="E24">
-        <v>1.024457992299844</v>
+        <v>1.020098037353368</v>
       </c>
       <c r="F24">
-        <v>1.032846713308659</v>
+        <v>1.029980896476968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048794033733459</v>
+        <v>1.045899522456328</v>
       </c>
       <c r="J24">
-        <v>1.036551863794328</v>
+        <v>1.030906311348033</v>
       </c>
       <c r="K24">
-        <v>1.043576304538547</v>
+        <v>1.03821892846347</v>
       </c>
       <c r="L24">
-        <v>1.038068793382799</v>
+        <v>1.03378116814079</v>
       </c>
       <c r="M24">
-        <v>1.046320554297535</v>
+        <v>1.043501204476812</v>
       </c>
       <c r="N24">
-        <v>1.038023886335077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014125432458206</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043000671669731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016851508884325</v>
+        <v>1.009506416043108</v>
       </c>
       <c r="D25">
-        <v>1.035721733237702</v>
+        <v>1.028731763696807</v>
       </c>
       <c r="E25">
-        <v>1.030538967759698</v>
+        <v>1.024633116187232</v>
       </c>
       <c r="F25">
-        <v>1.039400071654791</v>
+        <v>1.03440713398107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050999884015481</v>
+        <v>1.047274338079085</v>
       </c>
       <c r="J25">
-        <v>1.040824763382035</v>
+        <v>1.033718032770961</v>
       </c>
       <c r="K25">
-        <v>1.0477897156239</v>
+        <v>1.040899847568501</v>
       </c>
       <c r="L25">
-        <v>1.04268100630036</v>
+        <v>1.036860701458084</v>
       </c>
       <c r="M25">
-        <v>1.051416060694831</v>
+        <v>1.046493811708288</v>
       </c>
       <c r="N25">
-        <v>1.042302853930306</v>
+        <v>1.015074653423253</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045369107620528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014123323037735</v>
+        <v>1.013431486407313</v>
       </c>
       <c r="D2">
-        <v>1.031936876862381</v>
+        <v>1.03065421903905</v>
       </c>
       <c r="E2">
-        <v>1.028167667673613</v>
+        <v>1.027512609335489</v>
       </c>
       <c r="F2">
-        <v>1.037859320001385</v>
+        <v>1.037052953210262</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048312236878088</v>
+        <v>1.047759265594946</v>
       </c>
       <c r="J2">
-        <v>1.035889660416144</v>
+        <v>1.035217753595545</v>
       </c>
       <c r="K2">
-        <v>1.042968512507125</v>
+        <v>1.041702392693854</v>
       </c>
       <c r="L2">
-        <v>1.039248048928896</v>
+        <v>1.038601507859417</v>
       </c>
       <c r="M2">
-        <v>1.048815256342161</v>
+        <v>1.048019132842341</v>
       </c>
       <c r="N2">
-        <v>1.015807499224069</v>
+        <v>1.016497028585338</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047206360802898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046576287953742</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02312045888854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01739975848535</v>
+        <v>1.016594096649084</v>
       </c>
       <c r="D3">
-        <v>1.034218786307993</v>
+        <v>1.032777589834706</v>
       </c>
       <c r="E3">
-        <v>1.030688622329812</v>
+        <v>1.02992992974169</v>
       </c>
       <c r="F3">
-        <v>1.04032288798333</v>
+        <v>1.039406326644322</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049032783994088</v>
+        <v>1.048402314612437</v>
       </c>
       <c r="J3">
-        <v>1.037427071073004</v>
+        <v>1.03664238945146</v>
       </c>
       <c r="K3">
-        <v>1.044431780573909</v>
+        <v>1.043007573143277</v>
       </c>
       <c r="L3">
-        <v>1.040943335208826</v>
+        <v>1.040193654935833</v>
       </c>
       <c r="M3">
-        <v>1.050464571308245</v>
+        <v>1.049558651593774</v>
       </c>
       <c r="N3">
-        <v>1.016326126436027</v>
+        <v>1.016878934708887</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048511669865604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047794702659333</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023371634310093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019486163174137</v>
+        <v>1.018608657758108</v>
       </c>
       <c r="D4">
-        <v>1.03567506694048</v>
+        <v>1.034133313206181</v>
       </c>
       <c r="E4">
-        <v>1.032299594302121</v>
+        <v>1.031475387629629</v>
       </c>
       <c r="F4">
-        <v>1.041897796149032</v>
+        <v>1.040911477253369</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049484024915055</v>
+        <v>1.048804366161282</v>
       </c>
       <c r="J4">
-        <v>1.038404212340887</v>
+        <v>1.037548039964924</v>
       </c>
       <c r="K4">
-        <v>1.045361178294751</v>
+        <v>1.043836519605523</v>
       </c>
       <c r="L4">
-        <v>1.042023214878603</v>
+        <v>1.041208212922874</v>
       </c>
       <c r="M4">
-        <v>1.05151554083238</v>
+        <v>1.050539991299708</v>
       </c>
       <c r="N4">
-        <v>1.016655654185234</v>
+        <v>1.017121668816078</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049343432200993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.048571359075798</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023528770371783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02035542977712</v>
+        <v>1.019448136594304</v>
       </c>
       <c r="D5">
-        <v>1.036282532681635</v>
+        <v>1.034698974485511</v>
       </c>
       <c r="E5">
-        <v>1.032972107661843</v>
+        <v>1.032120715696952</v>
       </c>
       <c r="F5">
-        <v>1.042555397244447</v>
+        <v>1.041540109354758</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049670176895486</v>
+        <v>1.048970061157603</v>
       </c>
       <c r="J5">
-        <v>1.038810851980507</v>
+        <v>1.037924968792648</v>
       </c>
       <c r="K5">
-        <v>1.0457477943354</v>
+        <v>1.044181334251157</v>
       </c>
       <c r="L5">
-        <v>1.042473186188372</v>
+        <v>1.041631051367538</v>
       </c>
       <c r="M5">
-        <v>1.051953553819673</v>
+        <v>1.050949060032892</v>
       </c>
       <c r="N5">
-        <v>1.016792762657253</v>
+        <v>1.017222681992666</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049690085846313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048895105907644</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023593554408825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020500928423498</v>
+        <v>1.019588657593387</v>
       </c>
       <c r="D6">
-        <v>1.036384252812811</v>
+        <v>1.034793702569178</v>
       </c>
       <c r="E6">
-        <v>1.033084750826569</v>
+        <v>1.032228814891895</v>
       </c>
       <c r="F6">
-        <v>1.042665550974818</v>
+        <v>1.041645419635799</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049701225656643</v>
+        <v>1.04899768793704</v>
       </c>
       <c r="J6">
-        <v>1.038878887415027</v>
+        <v>1.037988035508489</v>
       </c>
       <c r="K6">
-        <v>1.045812470303925</v>
+        <v>1.044239016338735</v>
       </c>
       <c r="L6">
-        <v>1.042548505468298</v>
+        <v>1.041701833872926</v>
       </c>
       <c r="M6">
-        <v>1.052026876575234</v>
+        <v>1.051017541855991</v>
       </c>
       <c r="N6">
-        <v>1.016815700934756</v>
+        <v>1.017239582514833</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049748115161273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048949304055359</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023604357528518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019497808969406</v>
+        <v>1.018626370641388</v>
       </c>
       <c r="D7">
-        <v>1.035683202482163</v>
+        <v>1.034145839192733</v>
       </c>
       <c r="E7">
-        <v>1.03230859893686</v>
+        <v>1.031489467878349</v>
       </c>
       <c r="F7">
-        <v>1.041906600556217</v>
+        <v>1.040924485615453</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049486526180227</v>
+        <v>1.048809759219265</v>
       </c>
       <c r="J7">
-        <v>1.03840966208537</v>
+        <v>1.037559400766015</v>
       </c>
       <c r="K7">
-        <v>1.045366360305081</v>
+        <v>1.043846037284424</v>
       </c>
       <c r="L7">
-        <v>1.042029243069674</v>
+        <v>1.041219256743094</v>
       </c>
       <c r="M7">
-        <v>1.051521408473701</v>
+        <v>1.050550013153615</v>
       </c>
       <c r="N7">
-        <v>1.016657491801242</v>
+        <v>1.017150413198586</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049348075989601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04857929061365</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023531105206867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015237705025424</v>
+        <v>1.014526901667214</v>
       </c>
       <c r="D8">
-        <v>1.032712315005153</v>
+        <v>1.031390913147985</v>
       </c>
       <c r="E8">
-        <v>1.029023897021569</v>
+        <v>1.028350235278844</v>
       </c>
       <c r="F8">
-        <v>1.038695929556679</v>
+        <v>1.037866142212685</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048558880835758</v>
+        <v>1.047989274661893</v>
       </c>
       <c r="J8">
-        <v>1.036412941779006</v>
+        <v>1.035721940599185</v>
       </c>
       <c r="K8">
-        <v>1.043466684356779</v>
+        <v>1.042161821892583</v>
       </c>
       <c r="L8">
-        <v>1.039824565128673</v>
+        <v>1.039159404263442</v>
       </c>
       <c r="M8">
-        <v>1.049376060237432</v>
+        <v>1.0485565044256</v>
       </c>
       <c r="N8">
-        <v>1.015984041855742</v>
+        <v>1.016710295156598</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047650195272321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047001577863603</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023211005359737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007463561582373</v>
+        <v>1.007029771934489</v>
       </c>
       <c r="D9">
-        <v>1.027317477667471</v>
+        <v>1.026377009116019</v>
       </c>
       <c r="E9">
-        <v>1.0230756147484</v>
+        <v>1.022653262699815</v>
       </c>
       <c r="F9">
-        <v>1.032886617068664</v>
+        <v>1.032322963993298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046807408892109</v>
+        <v>1.046424123313184</v>
       </c>
       <c r="J9">
-        <v>1.032755487452858</v>
+        <v>1.032336709873935</v>
       </c>
       <c r="K9">
-        <v>1.039982367483629</v>
+        <v>1.039056157425433</v>
       </c>
       <c r="L9">
-        <v>1.035805080386024</v>
+        <v>1.035389195407001</v>
       </c>
       <c r="M9">
-        <v>1.0454677498252</v>
+        <v>1.044912521513373</v>
       </c>
       <c r="N9">
-        <v>1.01474974423856</v>
+        <v>1.015811987258997</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044557053422929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044117629764197</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022600272486141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002135097460143</v>
+        <v>1.001921534472045</v>
       </c>
       <c r="D10">
-        <v>1.023658612883053</v>
+        <v>1.0230007846398</v>
       </c>
       <c r="E10">
-        <v>1.019053992811927</v>
+        <v>1.018828666110517</v>
       </c>
       <c r="F10">
-        <v>1.028995584664818</v>
+        <v>1.028635167328846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045586622208459</v>
+        <v>1.045344432297294</v>
       </c>
       <c r="J10">
-        <v>1.030264259605367</v>
+        <v>1.030059121376362</v>
       </c>
       <c r="K10">
-        <v>1.037613450395214</v>
+        <v>1.03696681046713</v>
       </c>
       <c r="L10">
-        <v>1.033087537626768</v>
+        <v>1.032866086067071</v>
       </c>
       <c r="M10">
-        <v>1.042860332890814</v>
+        <v>1.04250596153353</v>
       </c>
       <c r="N10">
-        <v>1.013911593786085</v>
+        <v>1.015319475483331</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042544652179946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042264209067534</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022184031435633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000166807838063</v>
+        <v>1.000059734308601</v>
       </c>
       <c r="D11">
-        <v>1.022464146606426</v>
+        <v>1.02192039270081</v>
       </c>
       <c r="E11">
-        <v>1.01775965537373</v>
+        <v>1.017625780368561</v>
       </c>
       <c r="F11">
-        <v>1.028009427754436</v>
+        <v>1.027737898452722</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045267498390844</v>
+        <v>1.045085395353373</v>
       </c>
       <c r="J11">
-        <v>1.029532649055307</v>
+        <v>1.029430028474898</v>
       </c>
       <c r="K11">
-        <v>1.036974502281632</v>
+        <v>1.036440432978318</v>
       </c>
       <c r="L11">
-        <v>1.032354246239717</v>
+        <v>1.032222783116391</v>
       </c>
       <c r="M11">
-        <v>1.042421776524687</v>
+        <v>1.04215501429885</v>
       </c>
       <c r="N11">
-        <v>1.013691254258974</v>
+        <v>1.015396798057545</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042631713014703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042420707359655</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022115924799713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9995802539480595</v>
+        <v>0.9995018504908042</v>
       </c>
       <c r="D12">
-        <v>1.022178901770346</v>
+        <v>1.021662211102658</v>
       </c>
       <c r="E12">
-        <v>1.017457636211375</v>
+        <v>1.017347094168721</v>
       </c>
       <c r="F12">
-        <v>1.027913118089612</v>
+        <v>1.027663894569329</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045235971225561</v>
+        <v>1.045068043302083</v>
       </c>
       <c r="J12">
-        <v>1.029402388810404</v>
+        <v>1.029327307871725</v>
       </c>
       <c r="K12">
-        <v>1.036893177206206</v>
+        <v>1.036385840968035</v>
       </c>
       <c r="L12">
-        <v>1.032257847796234</v>
+        <v>1.032149330276564</v>
       </c>
       <c r="M12">
-        <v>1.042524397951943</v>
+        <v>1.042279619859739</v>
       </c>
       <c r="N12">
-        <v>1.013669025974218</v>
+        <v>1.015485707911606</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043037838802298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042844287299012</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022132962756701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000018522269637</v>
+        <v>0.9999016701653769</v>
       </c>
       <c r="D13">
-        <v>1.022575416107869</v>
+        <v>1.022013484569809</v>
       </c>
       <c r="E13">
-        <v>1.017900370268958</v>
+        <v>1.017754799128279</v>
       </c>
       <c r="F13">
-        <v>1.028503822853623</v>
+        <v>1.028220720640171</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045428115825908</v>
+        <v>1.045235652143954</v>
       </c>
       <c r="J13">
-        <v>1.029729480050465</v>
+        <v>1.02961755580649</v>
       </c>
       <c r="K13">
-        <v>1.037239894635195</v>
+        <v>1.036688092977195</v>
       </c>
       <c r="L13">
-        <v>1.032649568574599</v>
+        <v>1.032506651693522</v>
       </c>
       <c r="M13">
-        <v>1.043062305659285</v>
+        <v>1.042784229052383</v>
       </c>
       <c r="N13">
-        <v>1.013798809837161</v>
+        <v>1.015554680092768</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043738726297576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043518899771888</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022216738250109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00078911559272</v>
+        <v>1.000615544359615</v>
       </c>
       <c r="D14">
-        <v>1.023161077703553</v>
+        <v>1.022535295198315</v>
       </c>
       <c r="E14">
-        <v>1.018546821119984</v>
+        <v>1.018350909076609</v>
       </c>
       <c r="F14">
-        <v>1.02922785062417</v>
+        <v>1.028896108931384</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045663209930899</v>
+        <v>1.045436456068026</v>
       </c>
       <c r="J14">
-        <v>1.030164710436365</v>
+        <v>1.029998355861262</v>
       </c>
       <c r="K14">
-        <v>1.037675454305593</v>
+        <v>1.037060813350289</v>
       </c>
       <c r="L14">
-        <v>1.033143768905255</v>
+        <v>1.032951384190552</v>
       </c>
       <c r="M14">
-        <v>1.043635123229962</v>
+        <v>1.043309195871733</v>
       </c>
       <c r="N14">
-        <v>1.013958166592175</v>
+        <v>1.015594844837137</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044364238266728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044106619116792</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022305476124233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001201454913306</v>
+        <v>1.00099999093208</v>
       </c>
       <c r="D15">
-        <v>1.023455561082307</v>
+        <v>1.022798773367895</v>
       </c>
       <c r="E15">
-        <v>1.018870794675844</v>
+        <v>1.018650389990828</v>
       </c>
       <c r="F15">
-        <v>1.029563045683142</v>
+        <v>1.029207577621053</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045771131699862</v>
+        <v>1.045527864911094</v>
       </c>
       <c r="J15">
-        <v>1.030373550322166</v>
+        <v>1.030180390735859</v>
       </c>
       <c r="K15">
-        <v>1.037878744494231</v>
+        <v>1.037233562399061</v>
       </c>
       <c r="L15">
-        <v>1.033375397718656</v>
+        <v>1.033158931117138</v>
       </c>
       <c r="M15">
-        <v>1.043879225994767</v>
+        <v>1.043529940672309</v>
       </c>
       <c r="N15">
-        <v>1.01403120264338</v>
+        <v>1.015604009839914</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044594591444233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044318516957677</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022342913395932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003367081953575</v>
+        <v>1.003036854377316</v>
       </c>
       <c r="D16">
-        <v>1.024926347188799</v>
+        <v>1.024125528894243</v>
       </c>
       <c r="E16">
-        <v>1.020486038173742</v>
+        <v>1.020153351926959</v>
       </c>
       <c r="F16">
-        <v>1.031115117896783</v>
+        <v>1.030649835761283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04626241641683</v>
+        <v>1.04594359841894</v>
       </c>
       <c r="J16">
-        <v>1.031371383331856</v>
+        <v>1.031054098151659</v>
       </c>
       <c r="K16">
-        <v>1.038824274842945</v>
+        <v>1.038036996167665</v>
       </c>
       <c r="L16">
-        <v>1.034459385026313</v>
+        <v>1.034132383652806</v>
       </c>
       <c r="M16">
-        <v>1.044909324068472</v>
+        <v>1.04445178410965</v>
       </c>
       <c r="N16">
-        <v>1.014363092409345</v>
+        <v>1.015629487050528</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045370193305612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.045008544321063</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022498953321753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004626089048313</v>
+        <v>1.004234067731536</v>
       </c>
       <c r="D17">
-        <v>1.025748466978362</v>
+        <v>1.024876151497637</v>
       </c>
       <c r="E17">
-        <v>1.02138736848213</v>
+        <v>1.021000863723557</v>
       </c>
       <c r="F17">
-        <v>1.031923226610456</v>
+        <v>1.031404258826226</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046513666147178</v>
+        <v>1.046158224856067</v>
       </c>
       <c r="J17">
-        <v>1.031907646934081</v>
+        <v>1.031530503725543</v>
       </c>
       <c r="K17">
-        <v>1.039319607546279</v>
+        <v>1.038461630991252</v>
       </c>
       <c r="L17">
-        <v>1.035030511083816</v>
+        <v>1.034650425754977</v>
       </c>
       <c r="M17">
-        <v>1.045393757699305</v>
+        <v>1.044883186270291</v>
       </c>
       <c r="N17">
-        <v>1.014533659988632</v>
+        <v>1.015656230678938</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045624526773982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.04522092067179</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022572487732742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005218811566388</v>
+        <v>1.004808309344783</v>
       </c>
       <c r="D18">
-        <v>1.026077306420467</v>
+        <v>1.025183229766255</v>
       </c>
       <c r="E18">
-        <v>1.021743162948213</v>
+        <v>1.021341077126142</v>
       </c>
       <c r="F18">
-        <v>1.03213569250829</v>
+        <v>1.031600476973411</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046576569923056</v>
+        <v>1.046210665616398</v>
       </c>
       <c r="J18">
-        <v>1.032086098041451</v>
+        <v>1.031690887221716</v>
       </c>
       <c r="K18">
-        <v>1.039460597447557</v>
+        <v>1.038580979323593</v>
       </c>
       <c r="L18">
-        <v>1.03519684669632</v>
+        <v>1.034801330249142</v>
       </c>
       <c r="M18">
-        <v>1.045421856206645</v>
+        <v>1.04489516230926</v>
       </c>
       <c r="N18">
-        <v>1.014577328242977</v>
+        <v>1.015646612128546</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045410011271021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.044993574215217</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022576613835149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005207083687894</v>
+        <v>1.004811922046284</v>
       </c>
       <c r="D19">
-        <v>1.025958407191615</v>
+        <v>1.025083451787558</v>
       </c>
       <c r="E19">
-        <v>1.021602210186384</v>
+        <v>1.021214661298761</v>
       </c>
       <c r="F19">
-        <v>1.031804988669464</v>
+        <v>1.031283619772084</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046470871830139</v>
+        <v>1.046115570261406</v>
       </c>
       <c r="J19">
-        <v>1.031941320790682</v>
+        <v>1.031560793308083</v>
       </c>
       <c r="K19">
-        <v>1.039281394713724</v>
+        <v>1.038420517063904</v>
       </c>
       <c r="L19">
-        <v>1.034995594297337</v>
+        <v>1.034614345609549</v>
       </c>
       <c r="M19">
-        <v>1.045034691394288</v>
+        <v>1.044521586148202</v>
       </c>
       <c r="N19">
-        <v>1.014507896714431</v>
+        <v>1.015585419711015</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044779868356497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.04437404389496</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022517804145118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00351479153645</v>
+        <v>1.0032258946782</v>
       </c>
       <c r="D20">
-        <v>1.024605294880591</v>
+        <v>1.023860141974097</v>
       </c>
       <c r="E20">
-        <v>1.020093912670685</v>
+        <v>1.019802160717743</v>
       </c>
       <c r="F20">
-        <v>1.030003192319428</v>
+        <v>1.029577081974471</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045906178580921</v>
+        <v>1.045618493088385</v>
       </c>
       <c r="J20">
-        <v>1.030910893001461</v>
+        <v>1.03063302737627</v>
       </c>
       <c r="K20">
-        <v>1.038228861160438</v>
+        <v>1.037496025046742</v>
       </c>
       <c r="L20">
-        <v>1.03379240329311</v>
+        <v>1.033505526118855</v>
       </c>
       <c r="M20">
-        <v>1.043538219315922</v>
+        <v>1.043119054897214</v>
       </c>
       <c r="N20">
-        <v>1.014129295028625</v>
+        <v>1.015375303416141</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043070627537722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.042738904385528</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022289091881789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9994527641979725</v>
+        <v>0.9994245392027447</v>
       </c>
       <c r="D21">
-        <v>1.021794710234315</v>
+        <v>1.021338519977944</v>
       </c>
       <c r="E21">
-        <v>1.017004749581467</v>
+        <v>1.016941824876695</v>
       </c>
       <c r="F21">
-        <v>1.026963832675607</v>
+        <v>1.026759730757851</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044936461630636</v>
+        <v>1.044802674590407</v>
       </c>
       <c r="J21">
-        <v>1.02897338294655</v>
+        <v>1.02894633991433</v>
       </c>
       <c r="K21">
-        <v>1.036374614059472</v>
+        <v>1.035926598972734</v>
       </c>
       <c r="L21">
-        <v>1.031670967800349</v>
+        <v>1.031609184027781</v>
       </c>
       <c r="M21">
-        <v>1.041451761175789</v>
+        <v>1.041251268111212</v>
       </c>
       <c r="N21">
-        <v>1.013472710606191</v>
+        <v>1.0153356497539</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041378678497817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.041220001855585</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021972845264089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9968778665925068</v>
+        <v>0.9970135272136462</v>
       </c>
       <c r="D22">
-        <v>1.020027438445073</v>
+        <v>1.019753016546562</v>
       </c>
       <c r="E22">
-        <v>1.015065466411016</v>
+        <v>1.015146371041657</v>
       </c>
       <c r="F22">
-        <v>1.025073143371819</v>
+        <v>1.025008725597198</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044322991574965</v>
+        <v>1.044285924402537</v>
       </c>
       <c r="J22">
-        <v>1.027755707414549</v>
+        <v>1.027885361424157</v>
       </c>
       <c r="K22">
-        <v>1.035212321370706</v>
+        <v>1.034943062402285</v>
       </c>
       <c r="L22">
-        <v>1.030344267024195</v>
+        <v>1.03042363070187</v>
       </c>
       <c r="M22">
-        <v>1.040163739767813</v>
+        <v>1.040100518105745</v>
       </c>
       <c r="N22">
-        <v>1.013061465207109</v>
+        <v>1.015307005529931</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040359296433998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.040309260715854</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021774580611383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9982471898697582</v>
+        <v>0.9982852680278241</v>
       </c>
       <c r="D23">
-        <v>1.020966787114621</v>
+        <v>1.02058753923184</v>
       </c>
       <c r="E23">
-        <v>1.016096054631321</v>
+        <v>1.016091614719361</v>
       </c>
       <c r="F23">
-        <v>1.026077830577558</v>
+        <v>1.025931607961843</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04464990774393</v>
+        <v>1.044556175815806</v>
       </c>
       <c r="J23">
-        <v>1.028403361432652</v>
+        <v>1.028439802341658</v>
       </c>
       <c r="K23">
-        <v>1.035830556997837</v>
+        <v>1.035458263981776</v>
       </c>
       <c r="L23">
-        <v>1.031049661765483</v>
+        <v>1.031045304257024</v>
       </c>
       <c r="M23">
-        <v>1.040848523360272</v>
+        <v>1.04070494684341</v>
       </c>
       <c r="N23">
-        <v>1.013280201792158</v>
+        <v>1.01528077781518</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040901256636124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.04078762550382</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021877749728121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003544005794268</v>
+        <v>1.00325531035479</v>
       </c>
       <c r="D24">
-        <v>1.024610645477993</v>
+        <v>1.023865951735774</v>
       </c>
       <c r="E24">
-        <v>1.020098037353368</v>
+        <v>1.019806598927741</v>
       </c>
       <c r="F24">
-        <v>1.029980896476968</v>
+        <v>1.029555053086581</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045899522456328</v>
+        <v>1.045612138185085</v>
       </c>
       <c r="J24">
-        <v>1.030906311348033</v>
+        <v>1.030628623075178</v>
       </c>
       <c r="K24">
-        <v>1.03821892846347</v>
+        <v>1.037486527991997</v>
       </c>
       <c r="L24">
-        <v>1.03378116814079</v>
+        <v>1.033494592960193</v>
       </c>
       <c r="M24">
-        <v>1.043501204476812</v>
+        <v>1.04308229417105</v>
       </c>
       <c r="N24">
-        <v>1.014125432458206</v>
+        <v>1.015368504269226</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043000671669731</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.042669133319242</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022283771471003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009506416043108</v>
+        <v>1.008991304985974</v>
       </c>
       <c r="D25">
-        <v>1.028731763696807</v>
+        <v>1.027684743310006</v>
       </c>
       <c r="E25">
-        <v>1.024633116187232</v>
+        <v>1.024137622536162</v>
       </c>
       <c r="F25">
-        <v>1.03440713398107</v>
+        <v>1.033767524718446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047274338079085</v>
+        <v>1.046838073291762</v>
       </c>
       <c r="J25">
-        <v>1.033718032770961</v>
+        <v>1.033219818975655</v>
       </c>
       <c r="K25">
-        <v>1.040899847568501</v>
+        <v>1.039867969905328</v>
       </c>
       <c r="L25">
-        <v>1.036860701458084</v>
+        <v>1.036372441990486</v>
       </c>
       <c r="M25">
-        <v>1.046493811708288</v>
+        <v>1.045863320293634</v>
       </c>
       <c r="N25">
-        <v>1.015074653423253</v>
+        <v>1.016016134619925</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045369107620528</v>
+        <v>1.044870119110333</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022761432716463</v>
       </c>
     </row>
   </sheetData>
